--- a/tests/artifact/script/organization.xlsx
+++ b/tests/artifact/script/organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9252" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2702,10 +2702,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2792,40 +2792,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2837,25 +2808,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2866,14 +2820,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2893,15 +2839,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2916,7 +2902,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2931,6 +2917,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2957,13 +2957,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2975,19 +3095,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2999,73 +3107,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3077,67 +3137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3205,17 +3205,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3250,11 +3244,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3269,158 +3278,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3469,14 +3469,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3622,14 +3622,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3705,52 +3705,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -26651,7 +26651,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>

--- a/tests/artifact/script/organization.xlsx
+++ b/tests/artifact/script/organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9252" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2702,10 +2702,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2792,40 +2792,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2837,25 +2808,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2866,14 +2820,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2893,15 +2839,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2916,7 +2902,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2931,6 +2917,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2957,13 +2957,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2975,19 +3095,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2999,73 +3107,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3077,67 +3137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3205,17 +3205,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3250,11 +3244,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3269,158 +3278,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3469,14 +3469,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3622,14 +3622,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3705,52 +3705,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
